--- a/tablas.xlsx
+++ b/tablas.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\TPsegParcialPPS2017\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>idusuario</t>
   </si>
@@ -75,13 +70,31 @@
   </si>
   <si>
     <t>TURNOS</t>
+  </si>
+  <si>
+    <t>idimagen</t>
+  </si>
+  <si>
+    <t>IMAGENESU</t>
+  </si>
+  <si>
+    <t>idimagenesU</t>
+  </si>
+  <si>
+    <t>imagen</t>
+  </si>
+  <si>
+    <t>contraseña</t>
+  </si>
+  <si>
+    <t>mail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,7 +220,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,78 +397,85 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -464,32 +484,50 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
       </c>
       <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/tablas.xlsx
+++ b/tablas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>idusuario</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>mail</t>
+  </si>
+  <si>
+    <t>estado</t>
   </si>
 </sst>
 </file>
@@ -397,7 +400,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -405,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H9"/>
+  <dimension ref="A2:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -500,20 +503,32 @@
       <c r="A5" t="s">
         <v>17</v>
       </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
       <c r="F5" t="s">
         <v>9</v>
       </c>
       <c r="G5" t="s">
         <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>2</v>
       </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
@@ -528,6 +543,11 @@
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/tablas.xlsx
+++ b/tablas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>idusuario</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>estado</t>
+  </si>
+  <si>
+    <t>materias-turnos</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -408,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H10"/>
+  <dimension ref="A2:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -421,7 +424,7 @@
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -435,19 +438,22 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -461,19 +467,22 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -487,19 +496,22 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
       </c>
       <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -509,20 +521,20 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -530,22 +542,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>23</v>
       </c>

--- a/tablas.xlsx
+++ b/tablas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>idusuario</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>materias-turnos</t>
+  </si>
+  <si>
+    <t>idmateriasTurnos</t>
   </si>
 </sst>
 </file>
@@ -403,7 +406,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -414,14 +417,14 @@
   <dimension ref="A2:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
@@ -467,7 +470,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -496,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -521,6 +524,9 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
       <c r="F5" t="s">
         <v>23</v>
       </c>
@@ -540,6 +546,12 @@
       </c>
       <c r="D6" t="s">
         <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9">

--- a/tablas.xlsx
+++ b/tablas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>idusuario</t>
   </si>
@@ -97,6 +97,30 @@
   </si>
   <si>
     <t>idmateriasTurnos</t>
+  </si>
+  <si>
+    <t>asistencia</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>idasistencia</t>
+  </si>
+  <si>
+    <t>idestado</t>
+  </si>
+  <si>
+    <t>estados</t>
+  </si>
+  <si>
+    <t>anio</t>
+  </si>
+  <si>
+    <t>cuatrimestre</t>
+  </si>
+  <si>
+    <t>asignado</t>
   </si>
 </sst>
 </file>
@@ -112,12 +136,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,8 +162,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,7 +437,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -414,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I10"/>
+  <dimension ref="A2:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J2" sqref="J2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -427,7 +458,7 @@
     <col min="7" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -455,8 +486,14 @@
       <c r="I2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -484,8 +521,14 @@
       <c r="I3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -508,13 +551,19 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -539,8 +588,14 @@
       <c r="I5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -551,25 +606,37 @@
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>23</v>
       </c>

--- a/tablas.xlsx
+++ b/tablas.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7770"/>
@@ -10,11 +10,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -171,14 +167,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -448,7 +436,7 @@
   <dimension ref="A2:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
